--- a/Federal Fiscal Balances (Nominal).xlsx
+++ b/Federal Fiscal Balances (Nominal).xlsx
@@ -2930,40 +2930,40 @@
         <v>2021</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>66726</v>
+        <v>66989</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>57701</v>
+        <v>58136</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>17709</v>
+        <v>17933</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>24905</v>
+        <v>24237</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>212668</v>
+        <v>215291</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>107753</v>
+        <v>107992</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>16059</v>
+        <v>16130</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>21156</v>
+        <v>21447</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>3618</v>
+        <v>3601</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>10059</v>
+        <v>10124</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>7495</v>
+        <v>7575</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>545849</v>
+        <v>549455</v>
       </c>
     </row>
     <row r="63">
@@ -2971,40 +2971,122 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>60278</v>
+        <v>61395</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>50677</v>
+        <v>50316</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>17055</v>
+        <v>16918</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>23635</v>
+        <v>23581</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>191631</v>
+        <v>193293</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>96890</v>
+        <v>95651</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>15511</v>
+        <v>15393</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>20725</v>
+        <v>20851</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>3589</v>
+        <v>4152</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>9573</v>
+        <v>9457</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>7735</v>
+        <v>7710</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>497299</v>
+        <v>498717</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>65322</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>56043</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>18839</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>26139</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>207125</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>102887</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>16790</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>22785</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>3740</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>10168</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>8224</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>538062</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>72659</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>63111</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>24217</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>29065</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>256444</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>111529</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>18550</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>24919</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>4271</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>11597</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>8958</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>625320</v>
       </c>
     </row>
   </sheetData>
@@ -5544,40 +5626,40 @@
         <v>2021</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>71400</v>
+        <v>72939</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>64595</v>
+        <v>64004</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>14833</v>
+        <v>14733</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>15399</v>
+        <v>15212</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>211853</v>
+        <v>212878</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>74221</v>
+        <v>74417</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>8342</v>
+        <v>8289</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>10712</v>
+        <v>10747</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>1709</v>
+        <v>1742</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>6603</v>
+        <v>6614</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>1920</v>
+        <v>1860</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>481587</v>
+        <v>483435</v>
       </c>
     </row>
     <row r="63">
@@ -5585,40 +5667,122 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>75675</v>
+        <v>77392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>70084</v>
+        <v>72036</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>15907</v>
+        <v>16411</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>16175</v>
+        <v>15939</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>224905</v>
+        <v>226546</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>77309</v>
+        <v>79201</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>8735</v>
+        <v>8837</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>11229</v>
+        <v>11357</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>1783</v>
+        <v>1833</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>7230</v>
+        <v>6932</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>2038</v>
+        <v>1981</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>511070</v>
+        <v>518465</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>82903</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>81096</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>17710</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>17528</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>241871</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>81258</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>9717</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>12641</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>2039</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>7029</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>2135</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>555927</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>87964</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>89272</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>17959</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>18732</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>257555</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>84544</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>10363</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>13578</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>7825</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>2272</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>592287</v>
       </c>
     </row>
   </sheetData>
@@ -8158,40 +8322,40 @@
         <v>2021</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>4674</v>
+        <v>5950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>6894</v>
+        <v>5868</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-2876</v>
+        <v>-3200</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>-9506</v>
+        <v>-9025</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>-815</v>
+        <v>-2413</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>-33532</v>
+        <v>-33575</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-7717</v>
+        <v>-7841</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-10444</v>
+        <v>-10700</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-1909</v>
+        <v>-1859</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-3456</v>
+        <v>-3510</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>-5575</v>
+        <v>-5715</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>-64262</v>
+        <v>-66020</v>
       </c>
     </row>
     <row r="63">
@@ -8199,40 +8363,122 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>15397</v>
+        <v>15997</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>19407</v>
+        <v>21720</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-1148</v>
+        <v>-507</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-7460</v>
+        <v>-7642</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>33274</v>
+        <v>33253</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>-19581</v>
+        <v>-16450</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-6776</v>
+        <v>-6556</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-9496</v>
+        <v>-9494</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-1806</v>
+        <v>-2319</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-2343</v>
+        <v>-2525</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>-5697</v>
+        <v>-5729</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>13771</v>
+        <v>19748</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>17581</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>25053</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>-1129</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>-8611</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>34746</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>-21629</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>-7073</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>-10144</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>-1701</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>-3139</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>-6089</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>17865</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>15305</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>26161</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>-6258</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>-10333</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>-26985</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>-8187</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>-11341</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>-2048</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>-3772</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>-6686</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>-33033</v>
       </c>
     </row>
   </sheetData>
@@ -9952,40 +10198,40 @@
         <v>2001</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>816.20141870794</v>
+        <v>816.228630190882</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>7680.9260231698</v>
+        <v>7680.66961084729</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-2664.13943343749</v>
+        <v>-2664.17898803885</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-3726.1812888613</v>
+        <v>-3726.18057451995</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>20363.2622072691</v>
+        <v>20363.2866596359</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>-8112.60891975352</v>
+        <v>-8112.36379635571</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>-3444.65016059172</v>
+        <v>-3444.65251402645</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>-5114.59229528529</v>
+        <v>-5114.58684014351</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>-851.762855348307</v>
+        <v>-851.764111176175</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>-3057.04597068132</v>
+        <v>-3057.04471372565</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>-1889.40872518794</v>
+        <v>-1889.41336268778</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.00000000000113686837721616</v>
+        <v>0.00000000000545696821063757</v>
       </c>
     </row>
     <row r="43">
@@ -9993,40 +10239,40 @@
         <v>2002</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>89.5055882671734</v>
+        <v>89.4737942445546</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>8197.77574036086</v>
+        <v>8197.53567538508</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-2138.51473457704</v>
+        <v>-2138.55802123645</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-3656.81872839032</v>
+        <v>-3656.83342705915</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>18067.3289919327</v>
+        <v>18067.5730039533</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>-7507.50140664505</v>
+        <v>-7507.41931638624</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>-3238.6560986023</v>
+        <v>-3238.66997189565</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>-4855.93330099711</v>
+        <v>-4855.94441095259</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>-760.028795813939</v>
+        <v>-760.032168264247</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>-2808.92663558022</v>
+        <v>-2808.89463589296</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>-1388.23061995475</v>
+        <v>-1388.23052189566</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.00000000000865441052155802</v>
+        <v>-0.00000000000481747974845348</v>
       </c>
     </row>
     <row r="44">
@@ -10034,40 +10280,40 @@
         <v>2003</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>840.04411397942</v>
+        <v>839.968035545653</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>8169.21133554805</v>
+        <v>8169.03888784125</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-2513.87580342174</v>
+        <v>-2513.91416596832</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-3980.0367481662</v>
+        <v>-3980.05770527773</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>17780.851326639</v>
+        <v>17781.207182368</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>-6736.84820048826</v>
+        <v>-6736.89571124067</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-3318.87395245637</v>
+        <v>-3318.8919837177</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-4755.50407046789</v>
+        <v>-4755.50876140765</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>-748.683577324606</v>
+        <v>-748.688430112942</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>-2667.04747473994</v>
+        <v>-2667.02754915302</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>-2069.23694910142</v>
+        <v>-2069.2297988769</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>-0.000000000000795807864051312</v>
+        <v>-0.0000000000153477230924182</v>
       </c>
     </row>
     <row r="45">
@@ -10075,40 +10321,40 @@
         <v>2004</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>508.33751036101</v>
+        <v>508.176308432558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>9191.9358485604</v>
+        <v>9191.68873546216</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-3416.585196797</v>
+        <v>-3416.64374636786</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-3924.83840606901</v>
+        <v>-3924.88092636021</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>17841.4969072175</v>
+        <v>17842.2778604411</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>-6528.50164109033</v>
+        <v>-6528.74332406968</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-3404.50899854746</v>
+        <v>-3404.54452447144</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>-4898.25937107426</v>
+        <v>-4898.27065960854</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-748.137119448553</v>
+        <v>-748.144440554714</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>-2509.08913245517</v>
+        <v>-2509.07586272712</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>-2111.85040065709</v>
+        <v>-2111.83942017621</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>-0.0000000000203499439521693</v>
+        <v>-0.00000000000312638803734444</v>
       </c>
     </row>
     <row r="46">
@@ -10116,40 +10362,40 @@
         <v>2005</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1535.21910948146</v>
+        <v>1535.14890189827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>13439.144821231</v>
+        <v>13439.0605999827</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-2805.90797674824</v>
+        <v>-2805.92779551063</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-4755.22795401639</v>
+        <v>-4755.24483316116</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>19508.1102197378</v>
+        <v>19508.4378039367</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>-7669.05981673412</v>
+        <v>-7669.17027412564</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-3945.5825227603</v>
+        <v>-3945.59575810759</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>-6656.34276698497</v>
+        <v>-6656.35935438101</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-839.996673278077</v>
+        <v>-840.000197222741</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>-5136.85844941809</v>
+        <v>-5136.85571811967</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>-2673.49799050998</v>
+        <v>-2673.49337518917</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>0.0000000000102318153949454</v>
+        <v>0.0000000000325144355883822</v>
       </c>
     </row>
     <row r="47">
@@ -10157,40 +10403,40 @@
         <v>2006</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>2711.27480452501</v>
+        <v>2711.27775546938</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>17654.0393436233</v>
+        <v>17654.0401894398</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-2757.81194457406</v>
+        <v>-2757.81060359073</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-4910.2465154618</v>
+        <v>-4910.24423038481</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>15497.7608991312</v>
+        <v>15497.703472022</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>-12217.1337856597</v>
+        <v>-12217.0747973217</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>-4014.28571896119</v>
+        <v>-4014.28534954185</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>-5588.58067124016</v>
+        <v>-5588.57850788579</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>-870.09595386399</v>
+        <v>-870.097584236476</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>-2910.66619477701</v>
+        <v>-2910.66679114271</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>-2594.25426274165</v>
+        <v>-2594.26355282719</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.00000000000056843418860808</v>
+        <v>0.00000000000136424205265939</v>
       </c>
     </row>
     <row r="48">
@@ -10198,40 +10444,40 @@
         <v>2007</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>4461.31695378625</v>
+        <v>4461.29569198544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>22233.8064926826</v>
+        <v>22233.7875277381</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-1992.0875731646</v>
+        <v>-1992.07976177728</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-4798.57471712828</v>
+        <v>-4798.57474430724</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>11355.7445563984</v>
+        <v>11355.3613249169</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>-14741.9894889253</v>
+        <v>-14741.5031040577</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>-4258.89745782978</v>
+        <v>-4258.8976091802</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>-6044.71547849169</v>
+        <v>-6044.76874795942</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>-1031.53576218815</v>
+        <v>-1031.53433570234</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>-2759.10377109081</v>
+        <v>-2759.09788747481</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>-2423.96375404865</v>
+        <v>-2423.98835418141</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>-0.0000000000177351466845721</v>
+        <v>-0.000000000000682121026329696</v>
       </c>
     </row>
     <row r="49">
@@ -10239,40 +10485,40 @@
         <v>2008</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>4534.74329762959</v>
+        <v>4534.75225102503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>24718.8328773038</v>
+        <v>24718.8330717582</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-980.756530656281</v>
+        <v>-980.73928305392</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-4650.70514319467</v>
+        <v>-4650.69912445216</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>8855.55254795319</v>
+        <v>8855.48139045764</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>-16282.188747939</v>
+        <v>-16282.1251638554</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-4110.34586982848</v>
+        <v>-4110.3433585791</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>-6420.88835582681</v>
+        <v>-6420.91450592466</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>-1117.6536418886</v>
+        <v>-1117.64792796094</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>-1852.57456104917</v>
+        <v>-1852.56842390621</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>-2694.0158725036</v>
+        <v>-2694.02892550847</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.0000000000158024704433046</v>
+        <v>-0.0000000000209183781407773</v>
       </c>
     </row>
     <row r="50">
@@ -10280,40 +10526,40 @@
         <v>2009</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>4242.68711927645</v>
+        <v>4242.62784955928</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>22535.6807380082</v>
+        <v>22535.6345896287</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>180.326090494499</v>
+        <v>180.300230397979</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>-4080.60853287032</v>
+        <v>-4080.62595060391</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>6569.02638504774</v>
+        <v>6569.08373887072</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>-13147.8880319737</v>
+        <v>-13147.7839141216</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>-3993.55463948488</v>
+        <v>-3993.56519762121</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>-5955.63559355727</v>
+        <v>-5955.62541230587</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>-1171.58417836804</v>
+        <v>-1171.59340666235</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>-2326.60251735896</v>
+        <v>-2326.61382505638</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>-2851.84683921372</v>
+        <v>-2851.83870208533</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>0.000000000017308821043116</v>
+        <v>-0.00000000000801492205937393</v>
       </c>
     </row>
     <row r="51">
@@ -10321,40 +10567,40 @@
         <v>2010</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>3460.66258919416</v>
+        <v>3460.54966123233</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>23258.8745455102</v>
+        <v>23258.7920176327</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>371.06335009651</v>
+        <v>371.018631295238</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>-3801.22284942615</v>
+        <v>-3801.25465344222</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>4070.57353447028</v>
+        <v>4070.86197854715</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>-11186.8605830473</v>
+        <v>-11186.8413435997</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-4059.09987337409</v>
+        <v>-4059.12155872236</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>-5817.12221530851</v>
+        <v>-5817.11394680841</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>-1161.90557472486</v>
+        <v>-1161.91873416562</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-2093.90407723431</v>
+        <v>-2093.92494614611</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>-3041.05884615592</v>
+        <v>-3041.04710582298</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>-0.0000000000219984030991327</v>
+        <v>0.0000000000106297193269711</v>
       </c>
     </row>
     <row r="52">
@@ -10362,40 +10608,40 @@
         <v>2011</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>4169.64795141012</v>
+        <v>4170.19854413704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>22561.576990965</v>
+        <v>22561.1588169108</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>424.464834897178</v>
+        <v>424.349661863325</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-4101.15737317282</v>
+        <v>-4101.25040748595</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>6743.94813791931</v>
+        <v>6744.26827317953</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>-13256.8627789688</v>
+        <v>-13256.9675638827</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>-4339.35364329203</v>
+        <v>-4339.38951410692</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>-6385.30581664266</v>
+        <v>-6385.3618805447</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>-1127.15648771578</v>
+        <v>-1127.17067469294</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>-1677.81955706879</v>
+        <v>-1677.83304752312</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>-3011.98225833074</v>
+        <v>-3012.0022078544</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>0.0000000000109139364212751</v>
+        <v>0.00000000000693489710101858</v>
       </c>
     </row>
     <row r="53">
@@ -10403,40 +10649,40 @@
         <v>2012</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>5127.95480613105</v>
+        <v>5128.41617459197</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>23313.0211565738</v>
+        <v>23312.7459568849</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>529.883235810385</v>
+        <v>529.803794327809</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-3938.88314916002</v>
+        <v>-3938.97652672693</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>6056.89441036585</v>
+        <v>6057.11940223654</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>-13938.7320879033</v>
+        <v>-13938.8590043987</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-4395.80921369922</v>
+        <v>-4395.83542425049</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>-6856.48732211253</v>
+        <v>-6856.53663365395</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>-1090.14568415216</v>
+        <v>-1090.1579217475</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-1617.26223016031</v>
+        <v>-1617.27292144718</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>-3190.43392169353</v>
+        <v>-3190.44689581644</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>-0.0000000000200088834390044</v>
+        <v>0.0000000000521822585142218</v>
       </c>
     </row>
     <row r="54">
@@ -10444,40 +10690,40 @@
         <v>2013</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>4100.86298089379</v>
+        <v>4100.37577520613</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>26878.5634611327</v>
+        <v>26878.7779639755</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1051.45864467399</v>
+        <v>1051.53531496487</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-3751.21529600957</v>
+        <v>-3751.10537373059</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>4566.6596153505</v>
+        <v>4566.48121643765</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-15562.0235802835</v>
+        <v>-15561.8713418081</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>-4459.1075038322</v>
+        <v>-4459.08463304002</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>-6939.39804185246</v>
+        <v>-6939.34353053642</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>-1169.69763475447</v>
+        <v>-1169.68395084153</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>-1264.10767308819</v>
+        <v>-1264.09583537433</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>-3451.99497223067</v>
+        <v>-3451.98560525312</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>-0.0000000000495674612466246</v>
+        <v>-0.0000000000211457518162206</v>
       </c>
     </row>
     <row r="55">
@@ -10485,40 +10731,40 @@
         <v>2014</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>4033.87132446239</v>
+        <v>4031.01283933941</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>29051.1190423065</v>
+        <v>29052.0609485798</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>1167.92986701774</v>
+        <v>1168.3486301572</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-3816.698830855</v>
+        <v>-3816.00384996743</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>6126.17619415737</v>
+        <v>6125.46359438399</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>-18814.65776321</v>
+        <v>-18813.7706070763</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>-4632.42599209</v>
+        <v>-4632.30908335498</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>-6958.46394582452</v>
+        <v>-6958.13820801711</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-1145.3276683541</v>
+        <v>-1145.24512574989</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-1320.11867642226</v>
+        <v>-1320.05294453084</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>-3691.40355118817</v>
+        <v>-3691.36619376393</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>-0.0000000000366071617463604</v>
+        <v>-0.0000000000334239302901551</v>
       </c>
     </row>
     <row r="56">
@@ -10526,40 +10772,40 @@
         <v>2015</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>4995.03288874957</v>
+        <v>5001.68683346284</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>26590.8658976462</v>
+        <v>26587.5944875629</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>873.735171263922</v>
+        <v>873.021820163948</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-3906.66708907857</v>
+        <v>-3907.45241218627</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>8977.04142250824</v>
+        <v>8976.10595701416</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-18976.2770741252</v>
+        <v>-18976.3410029739</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-4816.73780242214</v>
+        <v>-4816.94719309595</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-7208.98059597834</v>
+        <v>-7209.49018843508</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-1155.42903844135</v>
+        <v>-1155.47900127317</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-1536.77936777587</v>
+        <v>-1536.90342214026</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>-3835.80441234647</v>
+        <v>-3835.79587809917</v>
       </c>
       <c r="M56" s="1" t="n">
-        <v>0.0000000000458157956018113</v>
+        <v>0.0000000000204636307898909</v>
       </c>
     </row>
     <row r="57">
@@ -10567,40 +10813,40 @@
         <v>2016</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>7005.48675089181</v>
+        <v>7004.83309537592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>18599.8478080843</v>
+        <v>18600.1270717242</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>271.846296791756</v>
+        <v>272.035235134484</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>-4024.37858037141</v>
+        <v>-4024.36193883587</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>14309.721399476</v>
+        <v>14309.5083596452</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>-17308.3311234247</v>
+        <v>-17307.900372833</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-4956.90748339903</v>
+        <v>-4956.88767397391</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>-7151.58946259746</v>
+        <v>-7151.6461157344</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>-1210.15825234515</v>
+        <v>-1210.12867088555</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-1500.88952028036</v>
+        <v>-1500.93945374186</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>-4034.64783282576</v>
+        <v>-4034.63953587518</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>0.0000000000161435309564695</v>
+        <v>-0.0000000000166551217262167</v>
       </c>
     </row>
     <row r="58">
@@ -10608,40 +10854,40 @@
         <v>2017</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>8354.80857192987</v>
+        <v>8352.98221013364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>17220.5448791191</v>
+        <v>17221.9680590339</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>-382.098026374764</v>
+        <v>-380.961792115627</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>-4503.70693706835</v>
+        <v>-4503.68802346144</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>18040.3800393846</v>
+        <v>18037.202592716</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>-18696.9323152544</v>
+        <v>-18693.4626187523</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>-5240.2981785916</v>
+        <v>-5240.32813318895</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>-7466.54028765883</v>
+        <v>-7467.31585224548</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>-1347.75689115813</v>
+        <v>-1347.50732253252</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-1764.34423077744</v>
+        <v>-1764.90852179124</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>-4214.05662355006</v>
+        <v>-4213.98059779601</v>
       </c>
       <c r="M58" s="1" t="n">
-        <v>-0.0000000000325144355883822</v>
+        <v>-0.0000000000284785528492648</v>
       </c>
     </row>
     <row r="59">
@@ -10649,40 +10895,40 @@
         <v>2018</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>9479.8414658928</v>
+        <v>9472.84835911247</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>18580.0801065229</v>
+        <v>18584.9413054702</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>-416.787507752581</v>
+        <v>-412.515963263455</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-4619.69020825637</v>
+        <v>-4619.38564862694</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>18138.5287714173</v>
+        <v>18127.3656544911</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>-20348.1685620354</v>
+        <v>-20336.0060288429</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>-5601.08660773573</v>
+        <v>-5601.11564693836</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>-7581.81151053104</v>
+        <v>-7584.37090823363</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-1404.12748299721</v>
+        <v>-1403.26613508838</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-1494.59341810746</v>
+        <v>-1496.61014004405</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>-4732.18504641727</v>
+        <v>-4731.8848480361</v>
       </c>
       <c r="M59" s="1" t="n">
-        <v>-0.0000000000187014848052058</v>
+        <v>-0.0000000000250679477176163</v>
       </c>
     </row>
     <row r="60">
@@ -10690,40 +10936,40 @@
         <v>2019</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>10089.8594007164</v>
+        <v>10086.6142490017</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>17670.0491734978</v>
+        <v>17672.1996013663</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>-1283.12036491891</v>
+        <v>-1281.06522730375</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-5748.28913984995</v>
+        <v>-5748.16060459091</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>21158.5137262531</v>
+        <v>21153.3292012347</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>-19118.0764286966</v>
+        <v>-19112.4208311895</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>-5885.68906304395</v>
+        <v>-5885.66620214339</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>-8297.8384894058</v>
+        <v>-8299.032753809</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-1542.80386064498</v>
+        <v>-1542.40675874992</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-2105.37489989024</v>
+        <v>-2106.30396558927</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>-4937.23005401685</v>
+        <v>-4937.0867082269</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>0.0000000000261479726759717</v>
+        <v>0.0000000000386535248253495</v>
       </c>
     </row>
     <row r="61">
@@ -10731,40 +10977,40 @@
         <v>2020</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>12665.1680985896</v>
+        <v>12760.7769558037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>10200.6345464432</v>
+        <v>10137.5082334792</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-1328.39315009701</v>
+        <v>-1391.86844666906</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>-5314.37205462781</v>
+        <v>-5317.26603971459</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>23316.0497035743</v>
+        <v>23464.4854361863</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>-17119.001532632</v>
+        <v>-17282.9766289553</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>-5646.58262212973</v>
+        <v>-5646.61693810859</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>-7386.30016615814</v>
+        <v>-7348.89403475349</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>-1529.87371820882</v>
+        <v>-1541.7786281749</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>-2583.17301913539</v>
+        <v>-2554.90950435827</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>-5274.15608561817</v>
+        <v>-5278.46040473498</v>
       </c>
       <c r="M61" s="1" t="n">
-        <v>-0.0000000000452473614132032</v>
+        <v>-0.00000000000204636307898909</v>
       </c>
     </row>
     <row r="62">
@@ -10772,40 +11018,40 @@
         <v>2021</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>13419.6406557566</v>
+        <v>14973.6833295223</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>14364.3610183177</v>
+        <v>13518.9078750908</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>-889.809604897628</v>
+        <v>-1183.98131802979</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>-7165.96470568662</v>
+        <v>-6621.88417092697</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>24080.6227518932</v>
+        <v>23212.1187964476</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>-19070.7419540759</v>
+        <v>-18775.6596989989</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-6388.2736208271</v>
+        <v>-6475.70361610073</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>-8777.84788075539</v>
+        <v>-8973.68825997917</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-1632.02776477197</v>
+        <v>-1579.08214621265</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-2581.0758459747</v>
+        <v>-2600.05332445743</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>-5358.88304897822</v>
+        <v>-5494.65746635501</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>0.0000000000117097442853265</v>
+        <v>0.000000000038198777474463</v>
       </c>
     </row>
     <row r="63">
@@ -10813,40 +11059,122 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>13515.3510093604</v>
+        <v>13280.0266387801</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>17799.9273292031</v>
+        <v>19432.0125860421</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-1570.64766330519</v>
+        <v>-1104.65813907897</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-7958.49624417241</v>
+        <v>-8358.65375881139</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>27929.2198426803</v>
+        <v>25568.88100066</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>-22656.9882233713</v>
+        <v>-20845.7342512729</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-7063.25713285895</v>
+        <v>-6966.10246157831</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-9856.71585731194</v>
+        <v>-10013.1926803226</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-1866.37889455771</v>
+        <v>-2403.77161515139</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-2529.05647689532</v>
+        <v>-2794.35115999093</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>-5742.95768877096</v>
+        <v>-5794.45615927566</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>0.0000000000134150468511507</v>
+        <v>-0.0000000000518411980010569</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>15120.750142625</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>22961.5313942729</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>-1668.86850599444</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>-9259.24082211311</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>27772.7008061457</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>-25564.1607467316</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>-7443.73640965307</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>-10613.7219153904</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>-1778.49884117211</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>-3379.34168980327</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>-6147.41341218557</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>-0.0000000000175077730091289</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>19845.0711327274</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>30090.9766135353</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>-5259.00588980326</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>-9138.44811825818</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>14035.890383696</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>-19783.5768170769</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>-7499.8843340617</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>-10474.1776648623</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>-1904.13203275559</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>-3334.19815713747</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>-6578.51511600327</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>-0.0000000000295585778076202</v>
       </c>
     </row>
   </sheetData>
